--- a/asset/Documents_ja/利用手順マニュアル_astroll_Ansible-driver_別紙_Ansible利用ガイドライン_astroll追加ルール.xlsx
+++ b/asset/Documents_ja/利用手順マニュアル_astroll_Ansible-driver_別紙_Ansible利用ガイドライン_astroll追加ルール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\abkfs04.nsl.ad.nec.co.jp\a06006-01\99_共有(だれでも)\ITAVer7.3コメント掃除\02_修正後\ita_install_package\ITA\ita-contents\ita-root\webroot\uploadfiles\manual_management\manual_list\0000000007\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\000001A00ABHY\Desktop\mail\GitHub\it-automation\asset\Documents_ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,6 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'03.Ansible利用ガイドライン(astrol追加ルール)'!$A$1:$J$18</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'03.Ansible利用ガイドライン(astrol追加ルール)'!$3:$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -2233,96 +2234,352 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Ansible利用ガイドライン(astroll追加ルール)</t>
+    <rPh sb="7" eb="9">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>astroll取り込み可能例</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>astroll取り込み不可例</t>
+    <rPh sb="11" eb="13">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・登録の場合
+　Movementを選択しても変数名に候補として表示しません。
+  作業実行時に変数未定義のエラーとなります。
+・更新の場合 (代入値管理登録後にastroll追加ルール外の記載のplaybookに更新した場合)
+　変数名に「ID変換失敗(n)」(※nは登録時の管理番号)と表示します。
+  作業実行時に変数未定義のエラーとなります。
+</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>ミテイギ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>astrollWebUI上のテンプレート管理メニューでテンプレート素材を登録をする際、
+テンプレート埋込変数名の接頭文字をTPF_とし、TPF_を含め128Byte以内とする。</t>
+    <rPh sb="12" eb="13">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>イナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録画面でバリデーションチェックを行っているので、astroll追加ルールに準拠しないテンプレート埋込変数名は登録できません。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジュンキョ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>astrollWebUI上のグローバル変数管理メニューでグローバル変数を登録する際、
+グローバル変数名の接頭文字をGBL_とし、GBL_を含め128Byte以内とする。</t>
+    <rPh sb="12" eb="13">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>イナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録画面でバリデーションチェックを行っているので、astroll追加ルールに準拠しないグローバル変数名は登録できません。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジュンキョ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>astrollWebUI上のファイル管理メニューでファイル埋込変数を登録する際、
+ファイル埋込変数名の接頭文字をCPF_とし、CPF_を含め128Byte以内とする。</t>
+    <rPh sb="12" eb="13">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>イナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録画面でバリデーションチェックを行っているので、astroll追加ルールに準拠しないファイル埋込変数名は登録できません。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジュンキョ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>astrollで取り込めるAnsibleのRole応用例</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="28"/>
-        <color rgb="FF00B050"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>利用手順マニュアル
-astroll Ansible driver</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color rgb="FF00B050"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>別紙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　Ansible利用ガイドライン
-astroll追加ルール
-第1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color rgb="FF00B050"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>版</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ベッシ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>Copyright © NEC Corporation 2016-2019. All rights reserved. 
+      <t>Copyright © NEC Corporation 2019. All rights reserved. 
 免責事項 
 本書の内容はすべて日本電気株式会社が所有する著作権に保護されています。 
 本書の内容の一部または全部を無断で転載および複写することは禁止されています。 
@@ -2337,24 +2594,12 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FF00B050"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Apache、Apache Tomcat、Tomcatは、Apache Software Foundationの登録商標または商標です。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
+      <t xml:space="preserve"> Apache、Apache Tomcat、Tomcatは、Apache Software Foundationの登録商標または商標です。 
  Ansibleは、Red Hat, Inc.の登録商標または商標です。
 その他、本書に記載のシステム名、会社名、製品名は、各社の登録商標もしくは商標です。 
 なお、® マーク、TMマークは本書に明記しておりません。 
@@ -2363,355 +2608,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ansible利用ガイドライン(astroll追加ルール)</t>
-    <rPh sb="7" eb="9">
+    <t>利用手順マニュアル
+astroll Ansible driver
+別紙　Ansible利用ガイドライン
+astroll追加ルール
+第1.0.0版</t>
+    <rPh sb="0" eb="2">
       <t>リヨウ</t>
     </rPh>
-    <rPh sb="23" eb="25">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>astroll取り込み可能例</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>astroll取り込み不可例</t>
-    <rPh sb="11" eb="13">
-      <t>フカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・登録の場合
-　Movementを選択しても変数名に候補として表示しません。
-  作業実行時に変数未定義のエラーとなります。
-・更新の場合 (代入値管理登録後にastroll追加ルール外の記載のplaybookに更新した場合)
-　変数名に「ID変換失敗(n)」(※nは登録時の管理番号)と表示します。
-  作業実行時に変数未定義のエラーとなります。
-</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウホ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>ミテイギ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ダイニュウ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>astrollWebUI上のテンプレート管理メニューでテンプレート素材を登録をする際、
-テンプレート埋込変数名の接頭文字をTPF_とし、TPF_を含め128Byte以内とする。</t>
-    <rPh sb="12" eb="13">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カンリ</t>
+    <rPh sb="2" eb="4">
+      <t>テジュン</t>
     </rPh>
     <rPh sb="33" eb="35">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>イナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録画面でバリデーションチェックを行っているので、astroll追加ルールに準拠しないテンプレート埋込変数名は登録できません。</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ジュンキョ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>astrollWebUI上のグローバル変数管理メニューでグローバル変数を登録する際、
-グローバル変数名の接頭文字をGBL_とし、GBL_を含め128Byte以内とする。</t>
-    <rPh sb="12" eb="13">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>イナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録画面でバリデーションチェックを行っているので、astroll追加ルールに準拠しないグローバル変数名は登録できません。</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ジュンキョ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>astrollWebUI上のファイル管理メニューでファイル埋込変数を登録する際、
-ファイル埋込変数名の接頭文字をCPF_とし、CPF_を含め128Byte以内とする。</t>
-    <rPh sb="12" eb="13">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>イナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録画面でバリデーションチェックを行っているので、astroll追加ルールに準拠しないファイル埋込変数名は登録できません。</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ジュンキョ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>astrollで取り込めるAnsibleのRole応用例</t>
+      <t>ベッシ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ハン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2815,22 +2739,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2846,24 +2754,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF00B050"/>
+      <sz val="28"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="28"/>
-      <color theme="1"/>
+      <sz val="36"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="28"/>
-      <color rgb="FF00B050"/>
+      <sz val="14"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3396,10 +3308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3440,12 +3349,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3489,14 +3392,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3530,6 +3433,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7416,644 +7328,644 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="A1" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="59"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="86"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="59"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="86"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="59"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="86"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
+      <c r="A47" s="86"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="59"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
+      <c r="A48" s="86"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="86"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="86"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="59"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
+      <c r="A50" s="86"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
+      <c r="A51" s="86"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="86"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="59"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="H52" s="86"/>
+      <c r="I52" s="86"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="59"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
+      <c r="A53" s="86"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="86"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="59"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
+      <c r="A54" s="86"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="H54" s="86"/>
+      <c r="I54" s="86"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="59"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
+      <c r="A55" s="86"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="86"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="59"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
+      <c r="A56" s="86"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="86"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="86"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="59"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
+      <c r="A57" s="86"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="86"/>
+      <c r="G57" s="86"/>
+      <c r="H57" s="86"/>
+      <c r="I57" s="86"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="59"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
+      <c r="A58" s="86"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8076,181 +7988,181 @@
     <col min="1" max="1" width="134.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="310.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
-        <v>123</v>
+    <row r="1" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="87" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="44"/>
+      <c r="A2" s="43"/>
     </row>
     <row r="3" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="44"/>
+      <c r="A3" s="43"/>
     </row>
     <row r="4" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="44"/>
+      <c r="A4" s="43"/>
     </row>
     <row r="5" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="44"/>
+      <c r="A5" s="43"/>
     </row>
     <row r="6" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
     </row>
     <row r="7" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="44"/>
+      <c r="A7" s="43"/>
     </row>
     <row r="8" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
+      <c r="A8" s="43"/>
     </row>
     <row r="9" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="44"/>
+      <c r="A9" s="43"/>
     </row>
     <row r="10" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="44"/>
+      <c r="A10" s="43"/>
     </row>
     <row r="11" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="44"/>
+      <c r="A11" s="43"/>
     </row>
     <row r="12" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="44"/>
+      <c r="A12" s="43"/>
     </row>
     <row r="13" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="44"/>
+      <c r="A13" s="43"/>
     </row>
     <row r="14" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="44"/>
+      <c r="A14" s="43"/>
     </row>
     <row r="15" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="44"/>
+      <c r="A15" s="43"/>
     </row>
     <row r="16" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="44"/>
+      <c r="A16" s="43"/>
     </row>
     <row r="17" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="44"/>
+      <c r="A17" s="43"/>
     </row>
     <row r="18" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="44"/>
+      <c r="A18" s="43"/>
     </row>
     <row r="19" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="44"/>
+      <c r="A19" s="43"/>
     </row>
     <row r="20" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="44"/>
+      <c r="A20" s="43"/>
     </row>
     <row r="21" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="44"/>
+      <c r="A21" s="43"/>
     </row>
     <row r="22" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="44"/>
+      <c r="A22" s="43"/>
     </row>
     <row r="23" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="44"/>
+      <c r="A23" s="43"/>
     </row>
     <row r="24" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="44"/>
+      <c r="A24" s="43"/>
     </row>
     <row r="25" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="44"/>
+      <c r="A25" s="43"/>
     </row>
     <row r="26" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="44"/>
+      <c r="A26" s="43"/>
     </row>
     <row r="27" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="44"/>
+      <c r="A27" s="43"/>
     </row>
     <row r="28" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="44"/>
+      <c r="A28" s="43"/>
     </row>
     <row r="29" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="44"/>
+      <c r="A29" s="43"/>
     </row>
     <row r="30" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="44"/>
+      <c r="A30" s="43"/>
     </row>
     <row r="31" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="44"/>
+      <c r="A31" s="43"/>
     </row>
     <row r="32" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="44"/>
+      <c r="A32" s="43"/>
     </row>
     <row r="33" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="44"/>
+      <c r="A33" s="43"/>
     </row>
     <row r="34" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="44"/>
+      <c r="A34" s="43"/>
     </row>
     <row r="35" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="44"/>
+      <c r="A35" s="43"/>
     </row>
     <row r="36" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="44"/>
+      <c r="A36" s="43"/>
     </row>
     <row r="37" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="44"/>
+      <c r="A37" s="43"/>
     </row>
     <row r="38" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="44"/>
+      <c r="A38" s="43"/>
     </row>
     <row r="39" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="44"/>
+      <c r="A39" s="43"/>
     </row>
     <row r="40" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="44"/>
+      <c r="A40" s="43"/>
     </row>
     <row r="41" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="44"/>
+      <c r="A41" s="43"/>
     </row>
     <row r="42" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="44"/>
+      <c r="A42" s="43"/>
     </row>
     <row r="43" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="44"/>
+      <c r="A43" s="43"/>
     </row>
     <row r="44" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="44"/>
+      <c r="A44" s="43"/>
     </row>
     <row r="45" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="44"/>
+      <c r="A45" s="43"/>
     </row>
     <row r="46" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="44"/>
+      <c r="A46" s="43"/>
     </row>
     <row r="47" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="44"/>
+      <c r="A47" s="43"/>
     </row>
     <row r="48" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="44"/>
+      <c r="A48" s="43"/>
     </row>
     <row r="49" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="44"/>
+      <c r="A49" s="43"/>
     </row>
     <row r="50" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="44"/>
+      <c r="A50" s="43"/>
     </row>
     <row r="51" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="44"/>
+      <c r="A51" s="43"/>
     </row>
     <row r="52" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="44"/>
+      <c r="A52" s="43"/>
     </row>
     <row r="53" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="44"/>
+      <c r="A53" s="43"/>
     </row>
     <row r="54" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="44"/>
+      <c r="A54" s="43"/>
     </row>
     <row r="55" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="44"/>
+      <c r="A55" s="43"/>
     </row>
     <row r="56" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="44"/>
+      <c r="A56" s="43"/>
     </row>
     <row r="57" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="44"/>
+      <c r="A57" s="43"/>
     </row>
     <row r="58" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="44"/>
+      <c r="A58" s="43"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B62" s="42"/>
@@ -8278,8 +8190,8 @@
     <col min="6" max="6" width="65.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="49.5" style="4" customWidth="1"/>
     <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="45.125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="76.75" style="45" customWidth="1"/>
+    <col min="9" max="9" width="45.125" style="44" customWidth="1"/>
+    <col min="10" max="10" width="76.75" style="44" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8289,52 +8201,52 @@
       <c r="D1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="12"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:10" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="71" t="s">
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="57" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="61"/>
-      <c r="B4" s="63"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="29" t="s">
         <v>81</v>
       </c>
@@ -8344,11 +8256,11 @@
       <c r="E4" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:10" ht="144" x14ac:dyDescent="0.15">
       <c r="A5" s="23">
@@ -8372,11 +8284,11 @@
       <c r="G5" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="46" t="s">
         <v>69</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -8385,7 +8297,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>0</v>
@@ -8397,14 +8309,14 @@
         <v>1</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="46" t="s">
         <v>72</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -8430,7 +8342,7 @@
       <c r="G7" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="46" t="s">
         <v>72</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -8460,7 +8372,7 @@
       <c r="G8" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="46" t="s">
         <v>77</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -8473,7 +8385,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>0</v>
@@ -8484,15 +8396,15 @@
       <c r="E9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="48" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="46" t="s">
         <v>102</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J9" s="2"/>
     </row>
@@ -8515,16 +8427,16 @@
       <c r="F10" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="46" t="s">
         <v>102</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="J10" s="53" t="s">
+      <c r="J10" s="52" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8532,7 +8444,7 @@
       <c r="A11" s="23">
         <v>7</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="54" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -8544,26 +8456,26 @@
       <c r="E11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="46" t="s">
         <v>77</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="53"/>
+      <c r="J11" s="52"/>
     </row>
     <row r="12" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="23">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>0</v>
@@ -8574,15 +8486,15 @@
       <c r="E12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="48" t="s">
+      <c r="F12" s="51"/>
+      <c r="G12" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="46" t="s">
         <v>104</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -8605,16 +8517,16 @@
       <c r="F13" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="46" t="s">
         <v>104</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="J13" s="56" t="s">
         <v>116</v>
       </c>
     </row>
@@ -8622,7 +8534,7 @@
       <c r="A14" s="23">
         <v>10</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="54" t="s">
         <v>114</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -8634,19 +8546,19 @@
       <c r="E14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="46" t="s">
         <v>77</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="52"/>
     </row>
     <row r="15" spans="1:10" ht="288" x14ac:dyDescent="0.15">
       <c r="A15" s="23">
@@ -8670,7 +8582,7 @@
       <c r="G15" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="46" t="s">
         <v>77</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -8706,7 +8618,7 @@
       <c r="I16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J16" s="49" t="s">
+      <c r="J16" s="48" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8732,7 +8644,7 @@
       <c r="G17" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="46" t="s">
         <v>69</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -8744,7 +8656,7 @@
       <c r="A18" s="23">
         <v>14</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="49" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -8756,13 +8668,13 @@
       <c r="E18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="47" t="s">
+      <c r="H18" s="46" t="s">
         <v>98</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -8798,7 +8710,7 @@
     <mergeCell ref="H3:H4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="37" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -8850,10 +8762,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="72">
+      <c r="A4" s="69">
         <v>1</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="69" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -8862,30 +8774,30 @@
       <c r="D4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="70" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="76"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="74">
+      <c r="A6" s="72">
         <v>2</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -8894,30 +8806,30 @@
       <c r="D6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="73" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="77"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="74"/>
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="72">
+      <c r="A8" s="69">
         <v>3</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="69" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -8926,30 +8838,30 @@
       <c r="D8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="F8" s="70" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="73"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74">
+      <c r="A10" s="72">
         <v>4</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="72" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -8958,27 +8870,27 @@
       <c r="D10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="75" t="s">
+      <c r="F10" s="73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="75"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73"/>
     </row>
     <row r="12" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="72">
+      <c r="A12" s="69">
         <v>5</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -8990,15 +8902,15 @@
       <c r="D12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="70" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="10" t="s">
         <v>30</v>
       </c>
@@ -9008,11 +8920,11 @@
       <c r="D13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="76"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="71"/>
     </row>
     <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="74">
+      <c r="A14" s="72">
         <v>6</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -9024,15 +8936,15 @@
       <c r="D14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="74" t="s">
+      <c r="E14" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="75" t="s">
+      <c r="F14" s="73" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="74"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="13" t="s">
         <v>30</v>
       </c>
@@ -9042,11 +8954,11 @@
       <c r="D15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="74"/>
-      <c r="F15" s="77"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="74"/>
     </row>
     <row r="16" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="72">
+      <c r="A16" s="69">
         <v>7</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -9058,15 +8970,15 @@
       <c r="D16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="70" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="10" t="s">
         <v>30</v>
       </c>
@@ -9076,11 +8988,11 @@
       <c r="D17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="70"/>
     </row>
     <row r="18" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="74">
+      <c r="A18" s="72">
         <v>8</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -9092,15 +9004,15 @@
       <c r="D18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="75" t="s">
+      <c r="F18" s="73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="74"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="13" t="s">
         <v>30</v>
       </c>
@@ -9110,11 +9022,31 @@
       <c r="D19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="75"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="E4:E5"/>
@@ -9123,26 +9055,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9169,7 +9081,7 @@
   <sheetData>
     <row r="2" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="22"/>
@@ -9179,29 +9091,29 @@
       <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="83"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="79"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="87"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="27" t="s">
         <v>10</v>
       </c>

--- a/asset/Documents_ja/利用手順マニュアル_astroll_Ansible-driver_別紙_Ansible利用ガイドライン_astroll追加ルール.xlsx
+++ b/asset/Documents_ja/利用手順マニュアル_astroll_Ansible-driver_別紙_Ansible利用ガイドライン_astroll追加ルール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\000001A00ABHY\Desktop\mail\GitHub\it-automation\asset\Documents_ja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\000001A00AKBR\Desktop\資材管理1.1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2612,7 +2612,7 @@
 astroll Ansible driver
 別紙　Ansible利用ガイドライン
 astroll追加ルール
-第1.0.0版</t>
+第1.1.0版</t>
     <rPh sb="0" eb="2">
       <t>リヨウ</t>
     </rPh>
@@ -3350,6 +3350,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3392,14 +3401,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3433,15 +3442,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7328,644 +7328,644 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="86"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="86"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="86"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="86"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="86"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="86"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="86"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="86"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="86"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="86"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="86"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="86"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="86"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="86"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="86"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="86"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="86"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="86"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="86"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="86"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="86"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="86"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="86"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="86"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="86"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="86"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="86"/>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="86"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="86"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="86"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="86"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="86"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="86"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="86"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="86"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="86"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="86"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="86"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="86"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="86"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="86"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="86"/>
-      <c r="I51" s="86"/>
+      <c r="A51" s="59"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="86"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="86"/>
-      <c r="H52" s="86"/>
-      <c r="I52" s="86"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="86"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="86"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="86"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="86"/>
-      <c r="I54" s="86"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="86"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="86"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="86"/>
-      <c r="B56" s="86"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="86"/>
-      <c r="I56" s="86"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="86"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="86"/>
-      <c r="H57" s="86"/>
-      <c r="I57" s="86"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="86"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="86"/>
-      <c r="I58" s="86"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7989,7 +7989,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="57" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8217,36 +8217,36 @@
       <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="60" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="58"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="29" t="s">
         <v>81</v>
       </c>
@@ -8256,11 +8256,11 @@
       <c r="E4" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
     </row>
     <row r="5" spans="1:10" ht="144" x14ac:dyDescent="0.15">
       <c r="A5" s="23">
@@ -8762,10 +8762,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="69">
+      <c r="A4" s="72">
         <v>1</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="72" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -8774,30 +8774,30 @@
       <c r="D4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="73" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="71"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="76"/>
     </row>
     <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="72">
+      <c r="A6" s="74">
         <v>2</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -8806,30 +8806,30 @@
       <c r="D6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="77"/>
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="69">
+      <c r="A8" s="72">
         <v>3</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="72" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -8838,30 +8838,30 @@
       <c r="D8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="73" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="69"/>
-      <c r="B9" s="69"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="73"/>
     </row>
     <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="72">
+      <c r="A10" s="74">
         <v>4</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="74" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -8870,27 +8870,27 @@
       <c r="D10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="75" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="75"/>
     </row>
     <row r="12" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="69">
+      <c r="A12" s="72">
         <v>5</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -8902,15 +8902,15 @@
       <c r="D12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="69" t="s">
+      <c r="E12" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="73" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="69"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="10" t="s">
         <v>30</v>
       </c>
@@ -8920,11 +8920,11 @@
       <c r="D13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="76"/>
     </row>
     <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="72">
+      <c r="A14" s="74">
         <v>6</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -8936,15 +8936,15 @@
       <c r="D14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="73" t="s">
+      <c r="F14" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="72"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="13" t="s">
         <v>30</v>
       </c>
@@ -8954,11 +8954,11 @@
       <c r="D15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="77"/>
     </row>
     <row r="16" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="69">
+      <c r="A16" s="72">
         <v>7</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -8970,15 +8970,15 @@
       <c r="D16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="73" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="69"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="10" t="s">
         <v>30</v>
       </c>
@@ -8988,11 +8988,11 @@
       <c r="D17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="69"/>
-      <c r="F17" s="70"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="73"/>
     </row>
     <row r="18" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="72">
+      <c r="A18" s="74">
         <v>8</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -9004,15 +9004,15 @@
       <c r="D18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="72" t="s">
+      <c r="E18" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="F18" s="75" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="72"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="13" t="s">
         <v>30</v>
       </c>
@@ -9022,23 +9022,19 @@
       <c r="D19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="73"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="E8:E9"/>
@@ -9047,14 +9043,18 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9091,29 +9091,29 @@
       <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="83"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="76"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="84"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="27" t="s">
         <v>10</v>
       </c>

--- a/asset/Documents_ja/利用手順マニュアル_astroll_Ansible-driver_別紙_Ansible利用ガイドライン_astroll追加ルール.xlsx
+++ b/asset/Documents_ja/利用手順マニュアル_astroll_Ansible-driver_別紙_Ansible利用ガイドライン_astroll追加ルール.xlsx
@@ -2,12 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\000001A00AKBR\Desktop\資材管理1.1.0\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="11955"/>
   </bookViews>
@@ -3401,14 +3396,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -8791,13 +8786,13 @@
         <v>14</v>
       </c>
       <c r="E5" s="72"/>
-      <c r="F5" s="76"/>
+      <c r="F5" s="74"/>
     </row>
     <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="74">
+      <c r="A6" s="75">
         <v>2</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -8806,23 +8801,23 @@
       <c r="D6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="74"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="77"/>
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8858,10 +8853,10 @@
       <c r="F9" s="73"/>
     </row>
     <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74">
+      <c r="A10" s="75">
         <v>4</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="75" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -8870,24 +8865,24 @@
       <c r="D10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="75" t="s">
+      <c r="F10" s="76" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
     </row>
     <row r="12" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="72">
@@ -8921,10 +8916,10 @@
         <v>20</v>
       </c>
       <c r="E13" s="72"/>
-      <c r="F13" s="76"/>
+      <c r="F13" s="74"/>
     </row>
     <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="74">
+      <c r="A14" s="75">
         <v>6</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -8936,15 +8931,15 @@
       <c r="D14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="74" t="s">
+      <c r="E14" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="75" t="s">
+      <c r="F14" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="74"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="13" t="s">
         <v>30</v>
       </c>
@@ -8954,7 +8949,7 @@
       <c r="D15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="74"/>
+      <c r="E15" s="75"/>
       <c r="F15" s="77"/>
     </row>
     <row r="16" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8992,7 +8987,7 @@
       <c r="F17" s="73"/>
     </row>
     <row r="18" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="74">
+      <c r="A18" s="75">
         <v>8</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -9004,15 +8999,15 @@
       <c r="D18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="75" t="s">
+      <c r="F18" s="76" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="74"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="13" t="s">
         <v>30</v>
       </c>
@@ -9022,11 +9017,31 @@
       <c r="D19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="E4:E5"/>
@@ -9035,26 +9050,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
